--- a/turni.xlsx
+++ b/turni.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t xml:space="preserve">GENNAIO . 1                                         GENNAIO . 1</t>
   </si>
@@ -3863,9 +3863,6 @@
           <cell r="AC6" t="str">
             <v>p</v>
           </cell>
-          <cell r="AD6" t="str">
-            <v>m</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="AF6" t="str">
@@ -15768,9 +15765,8 @@
           <cell r="AE21" t="str">
             <v>R</v>
           </cell>
-          <cell r="AF21" t="str">
-            <v>P</v>
-          </cell>
+        </row>
+        <row r="21">
           <cell r="AG21" t="str">
             <v>M+N</v>
           </cell>
@@ -23016,7 +23012,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AC37" activeCellId="0" sqref="AC37:AD37"/>
+      <selection pane="topRight" activeCell="AI35" activeCellId="0" sqref="AI35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28358,9 +28354,8 @@
         <f aca="false">[1]CARTELLINO!AC$6</f>
         <v>p</v>
       </c>
-      <c r="AA6" s="45" t="str">
-        <f aca="false">[1]CARTELLINO!AD$6</f>
-        <v>m</v>
+      <c r="AA6" s="45" t="s">
+        <v>15</v>
       </c>
       <c r="AB6" s="45" t="s">
         <v>15</v>
@@ -46345,9 +46340,8 @@
         <f aca="false">[1]CARTELLINO!AE$21</f>
         <v>R</v>
       </c>
-      <c r="AC21" s="57" t="str">
-        <f aca="false">[1]CARTELLINO!AF$21</f>
-        <v>P</v>
+      <c r="AC21" s="57" t="s">
+        <v>21</v>
       </c>
       <c r="AD21" s="57" t="str">
         <f aca="false">[1]CARTELLINO!AG$21</f>
@@ -56781,7 +56775,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{64D4AEFA-102F-4758-A7D8-AF6698D01D86}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{CB1A5050-7FC2-4F8D-9BC5-1586FBFFF8BD}">
             <xm:f>NOT(ISERROR(SEARCH("+",B3)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t xml:space="preserve">GENNAIO . 1                                         GENNAIO . 1</t>
   </si>
@@ -73,6 +73,9 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sarti</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">Berardi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
   </si>
   <si>
     <t xml:space="preserve">Bianchi</t>
@@ -3860,9 +3860,6 @@
           <cell r="AB6" t="str">
             <v>p</v>
           </cell>
-          <cell r="AC6" t="str">
-            <v>p</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="AF6" t="str">
@@ -15775,9 +15772,6 @@
           </cell>
           <cell r="AI21" t="str">
             <v>R</v>
-          </cell>
-          <cell r="AJ21" t="str">
-            <v>r</v>
           </cell>
         </row>
         <row r="21">
@@ -23012,7 +23006,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AI35" activeCellId="0" sqref="AI35"/>
+      <selection pane="topRight" activeCell="AH34" activeCellId="0" sqref="AH34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28350,9 +28344,8 @@
         <f aca="false">[1]CARTELLINO!AB$6</f>
         <v>p</v>
       </c>
-      <c r="Z6" s="45" t="str">
-        <f aca="false">[1]CARTELLINO!AC$6</f>
-        <v>p</v>
+      <c r="Z6" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="AA6" s="45" t="s">
         <v>15</v>
@@ -31846,7 +31839,7 @@
     </row>
     <row r="9" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="49" t="str">
         <f aca="false">[1]CARTELLINO!E$9</f>
@@ -35442,7 +35435,7 @@
     </row>
     <row r="12" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="51" t="str">
         <f aca="false">[1]CARTELLINO!E$12</f>
@@ -39038,7 +39031,7 @@
     </row>
     <row r="15" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="53" t="str">
         <f aca="false">[1]CARTELLINO!E$15</f>
@@ -42634,7 +42627,7 @@
     </row>
     <row r="18" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="55" t="str">
         <f aca="false">[1]CARTELLINO!E$18</f>
@@ -46230,7 +46223,7 @@
     </row>
     <row r="21" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="57" t="str">
         <f aca="false">[1]CARTELLINO!E$21</f>
@@ -46341,7 +46334,7 @@
         <v>R</v>
       </c>
       <c r="AC21" s="57" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AD21" s="57" t="str">
         <f aca="false">[1]CARTELLINO!AG$21</f>
@@ -46355,12 +46348,11 @@
         <f aca="false">[1]CARTELLINO!AI$21</f>
         <v>R</v>
       </c>
-      <c r="AG21" s="57" t="str">
-        <f aca="false">[1]CARTELLINO!AJ$21</f>
-        <v>r</v>
+      <c r="AG21" s="57" t="s">
+        <v>15</v>
       </c>
       <c r="AH21" s="57" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI21" s="57" t="str">
         <f aca="false">[1]CARTELLINO!AL$21</f>
@@ -56775,7 +56767,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{CB1A5050-7FC2-4F8D-9BC5-1586FBFFF8BD}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{60F01BEB-A08D-45C9-AEF3-8EDABCD6B160}">
             <xm:f>NOT(ISERROR(SEARCH("+",B3)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t xml:space="preserve">GENNAIO . 1                                         GENNAIO . 1</t>
   </si>
@@ -73,6 +73,9 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">Berardi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve">Bianchi</t>
@@ -3857,9 +3863,6 @@
           <cell r="AA6" t="str">
             <v>R</v>
           </cell>
-          <cell r="AB6" t="str">
-            <v>p</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="AF6" t="str">
@@ -8610,9 +8613,8 @@
           <cell r="AA12" t="str">
             <v>p</v>
           </cell>
-          <cell r="AB12" t="str">
-            <v>r</v>
-          </cell>
+        </row>
+        <row r="12">
           <cell r="AC12" t="str">
             <v>m/R</v>
           </cell>
@@ -15750,9 +15752,8 @@
           <cell r="AA21" t="str">
             <v>P</v>
           </cell>
-          <cell r="AB21" t="str">
-            <v>M/R</v>
-          </cell>
+        </row>
+        <row r="21">
           <cell r="AC21" t="str">
             <v>N</v>
           </cell>
@@ -23006,7 +23007,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AH34" activeCellId="0" sqref="AH34"/>
+      <selection pane="topRight" activeCell="AA33" activeCellId="0" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28340,12 +28341,11 @@
         <f aca="false">[1]CARTELLINO!AA$6</f>
         <v>R</v>
       </c>
-      <c r="Y6" s="45" t="str">
-        <f aca="false">[1]CARTELLINO!AB$6</f>
-        <v>p</v>
+      <c r="Y6" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="Z6" s="45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA6" s="45" t="s">
         <v>15</v>
@@ -31839,7 +31839,7 @@
     </row>
     <row r="9" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="49" t="str">
         <f aca="false">[1]CARTELLINO!E$9</f>
@@ -35435,7 +35435,7 @@
     </row>
     <row r="12" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="51" t="str">
         <f aca="false">[1]CARTELLINO!E$12</f>
@@ -35529,9 +35529,8 @@
         <f aca="false">[1]CARTELLINO!AA$12</f>
         <v>p</v>
       </c>
-      <c r="Y12" s="51" t="str">
-        <f aca="false">[1]CARTELLINO!AB$12</f>
-        <v>m</v>
+      <c r="Y12" s="51" t="s">
+        <v>15</v>
       </c>
       <c r="Z12" s="51" t="str">
         <f aca="false">[1]CARTELLINO!AC$12</f>
@@ -39031,7 +39030,7 @@
     </row>
     <row r="15" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="53" t="str">
         <f aca="false">[1]CARTELLINO!E$15</f>
@@ -42627,7 +42626,7 @@
     </row>
     <row r="18" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="55" t="str">
         <f aca="false">[1]CARTELLINO!E$18</f>
@@ -46223,7 +46222,7 @@
     </row>
     <row r="21" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="57" t="str">
         <f aca="false">[1]CARTELLINO!E$21</f>
@@ -46317,9 +46316,8 @@
         <f aca="false">[1]CARTELLINO!AA$21</f>
         <v>P</v>
       </c>
-      <c r="Y21" s="57" t="str">
-        <f aca="false">[1]CARTELLINO!AB$21</f>
-        <v>M/R</v>
+      <c r="Y21" s="57" t="s">
+        <v>23</v>
       </c>
       <c r="Z21" s="57" t="str">
         <f aca="false">[1]CARTELLINO!AC$21</f>
@@ -46334,7 +46332,7 @@
         <v>R</v>
       </c>
       <c r="AC21" s="57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD21" s="57" t="str">
         <f aca="false">[1]CARTELLINO!AG$21</f>
@@ -46352,7 +46350,7 @@
         <v>15</v>
       </c>
       <c r="AH21" s="57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI21" s="57" t="str">
         <f aca="false">[1]CARTELLINO!AL$21</f>
@@ -49816,7 +49814,7 @@
     </row>
     <row r="24" s="36" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="59" t="str">
         <f aca="false">[1]CARTELLINO!E$24</f>
@@ -53412,7 +53410,7 @@
     </row>
     <row r="27" s="62" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="61" t="str">
         <f aca="false">[1]CARTELLINO!E$27</f>
@@ -56602,15 +56600,15 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="63" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="64" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="JV30" s="65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="JW30" s="65"/>
       <c r="JX30" s="65"/>
@@ -56618,62 +56616,62 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="72" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="73" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="74" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="75" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56767,7 +56765,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{60F01BEB-A08D-45C9-AEF3-8EDABCD6B160}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{D0E9FA62-ECC0-4872-BDF0-F0E12ED8151B}">
             <xm:f>NOT(ISERROR(SEARCH("+",B3)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t xml:space="preserve">GENNAIO . 1                                         GENNAIO . 1</t>
   </si>
@@ -15722,9 +15722,8 @@
           <cell r="P21" t="str">
             <v>R</v>
           </cell>
-          <cell r="Q21" t="str">
-            <v>P</v>
-          </cell>
+        </row>
+        <row r="21">
           <cell r="R21" t="str">
             <v>M/R</v>
           </cell>
@@ -15751,9 +15750,6 @@
           </cell>
           <cell r="Z21" t="str">
             <v>R</v>
-          </cell>
-          <cell r="AA21" t="str">
-            <v>P</v>
           </cell>
         </row>
         <row r="21">
@@ -23010,7 +23006,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Y6" activeCellId="0" sqref="Y6"/>
+      <selection pane="topRight" activeCell="Q33" activeCellId="0" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -46274,9 +46270,8 @@
         <f aca="false">[1]CARTELLINO!P$21</f>
         <v>R</v>
       </c>
-      <c r="N21" s="58" t="str">
-        <f aca="false">[1]CARTELLINO!Q$21</f>
-        <v>P</v>
+      <c r="N21" s="58" t="s">
+        <v>23</v>
       </c>
       <c r="O21" s="58" t="str">
         <f aca="false">[1]CARTELLINO!R$21</f>
@@ -46314,9 +46309,8 @@
         <f aca="false">[1]CARTELLINO!Z$21</f>
         <v>R</v>
       </c>
-      <c r="X21" s="58" t="str">
-        <f aca="false">[1]CARTELLINO!AA$21</f>
-        <v>P</v>
+      <c r="X21" s="58" t="s">
+        <v>16</v>
       </c>
       <c r="Y21" s="58" t="s">
         <v>23</v>
@@ -56767,7 +56761,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{20113113-AE32-4FC1-A187-DFA19C8153D2}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{A651DDE8-34A0-43BC-91FC-F9E9BA48C7EA}">
             <xm:f>NOT(ISERROR(SEARCH("+",B3)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t xml:space="preserve">GENNAIO . 1                                         GENNAIO . 1</t>
   </si>
@@ -3849,9 +3849,8 @@
           <cell r="U6" t="str">
             <v>m</v>
           </cell>
-          <cell r="V6" t="str">
-            <v>p</v>
-          </cell>
+        </row>
+        <row r="6">
           <cell r="W6" t="str">
             <v>P</v>
           </cell>
@@ -6219,9 +6218,8 @@
           <cell r="U9" t="str">
             <v>r</v>
           </cell>
-          <cell r="V9" t="str">
-            <v>m</v>
-          </cell>
+        </row>
+        <row r="9">
           <cell r="W9" t="str">
             <v>m/R</v>
           </cell>
@@ -15736,9 +15734,8 @@
           <cell r="U21" t="str">
             <v>R</v>
           </cell>
-          <cell r="V21" t="str">
-            <v>P</v>
-          </cell>
+        </row>
+        <row r="21">
           <cell r="W21" t="str">
             <v>M</v>
           </cell>
@@ -23006,7 +23003,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q33" activeCellId="0" sqref="Q33"/>
+      <selection pane="topRight" activeCell="Z30" activeCellId="0" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28316,9 +28313,8 @@
         <f aca="false">[1]CARTELLINO!U$6</f>
         <v>m</v>
       </c>
-      <c r="S6" s="46" t="str">
-        <f aca="false">[1]CARTELLINO!V$6</f>
-        <v>p</v>
+      <c r="S6" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="T6" s="46" t="str">
         <f aca="false">[1]CARTELLINO!W$6</f>
@@ -31908,9 +31904,8 @@
         <f aca="false">[1]CARTELLINO!U$9</f>
         <v>r</v>
       </c>
-      <c r="S9" s="50" t="str">
-        <f aca="false">[1]CARTELLINO!V$9</f>
-        <v>m</v>
+      <c r="S9" s="50" t="s">
+        <v>15</v>
       </c>
       <c r="T9" s="50" t="str">
         <f aca="false">[1]CARTELLINO!W$9</f>
@@ -46289,9 +46284,8 @@
         <f aca="false">[1]CARTELLINO!U$21</f>
         <v>R</v>
       </c>
-      <c r="S21" s="58" t="str">
-        <f aca="false">[1]CARTELLINO!V$21</f>
-        <v>P</v>
+      <c r="S21" s="58" t="s">
+        <v>18</v>
       </c>
       <c r="T21" s="58" t="str">
         <f aca="false">[1]CARTELLINO!W$21</f>
@@ -56761,7 +56755,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{A651DDE8-34A0-43BC-91FC-F9E9BA48C7EA}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{339A8017-E9DF-4A4F-80A8-E0E130DBF980}">
             <xm:f>NOT(ISERROR(SEARCH("+",B3)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t xml:space="preserve">GENNAIO . 1                                         GENNAIO . 1</t>
   </si>
@@ -76,10 +76,13 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">Sarti</t>
+    <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">N</t>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarti</t>
   </si>
   <si>
     <t xml:space="preserve">Volpini</t>
@@ -15750,9 +15753,6 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="AC21" t="str">
-            <v>N</v>
-          </cell>
           <cell r="AD21" t="str">
             <v>S</v>
           </cell>
@@ -23003,7 +23003,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Z30" activeCellId="0" sqref="Z30"/>
+      <selection pane="topRight" activeCell="AF36" activeCellId="0" sqref="AF36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28340,10 +28340,10 @@
         <v>16</v>
       </c>
       <c r="Z6" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA6" s="46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AB6" s="46" t="s">
         <v>15</v>
@@ -31834,7 +31834,7 @@
     </row>
     <row r="9" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="50" t="str">
         <f aca="false">[1]CARTELLINO!E$9</f>
@@ -31928,7 +31928,7 @@
         <v>R</v>
       </c>
       <c r="Y9" s="50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z9" s="50" t="str">
         <f aca="false">[1]CARTELLINO!AC$9</f>
@@ -35428,7 +35428,7 @@
     </row>
     <row r="12" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="52" t="str">
         <f aca="false">[1]CARTELLINO!E$12</f>
@@ -39023,7 +39023,7 @@
     </row>
     <row r="15" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="54" t="str">
         <f aca="false">[1]CARTELLINO!E$15</f>
@@ -42619,7 +42619,7 @@
     </row>
     <row r="18" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="56" t="str">
         <f aca="false">[1]CARTELLINO!E$18</f>
@@ -46215,7 +46215,7 @@
     </row>
     <row r="21" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="58" t="str">
         <f aca="false">[1]CARTELLINO!E$21</f>
@@ -46266,7 +46266,7 @@
         <v>R</v>
       </c>
       <c r="N21" s="58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O21" s="58" t="str">
         <f aca="false">[1]CARTELLINO!R$21</f>
@@ -46285,7 +46285,7 @@
         <v>R</v>
       </c>
       <c r="S21" s="58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T21" s="58" t="str">
         <f aca="false">[1]CARTELLINO!W$21</f>
@@ -46307,11 +46307,10 @@
         <v>16</v>
       </c>
       <c r="Y21" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z21" s="58" t="str">
-        <f aca="false">[1]CARTELLINO!AC$21</f>
-        <v>N</v>
+        <v>24</v>
+      </c>
+      <c r="Z21" s="58" t="s">
+        <v>16</v>
       </c>
       <c r="AA21" s="58" t="str">
         <f aca="false">[1]CARTELLINO!AD$21</f>
@@ -49804,7 +49803,7 @@
     </row>
     <row r="24" s="37" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="60" t="str">
         <f aca="false">[1]CARTELLINO!E$24</f>
@@ -53400,7 +53399,7 @@
     </row>
     <row r="27" s="63" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="62" t="str">
         <f aca="false">[1]CARTELLINO!E$27</f>
@@ -56590,15 +56589,15 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="JV30" s="66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="JW30" s="66"/>
       <c r="JX30" s="66"/>
@@ -56606,62 +56605,62 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56755,7 +56754,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{339A8017-E9DF-4A4F-80A8-E0E130DBF980}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{58BC1E16-7AD0-4FF7-BA5C-C88ED1B7F3E5}">
             <xm:f>NOT(ISERROR(SEARCH("+",B3)))</xm:f>
             <xm:f>"+"</xm:f>
             <x14:dxf>
